--- a/biology/Médecine/Adolphe_Acker/Adolphe_Acker.xlsx
+++ b/biology/Médecine/Adolphe_Acker/Adolphe_Acker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolphe Acker, né à Paris le 25 février 1913 et mort à Créteil  le 9 juillet 1976, est un écrivain surréaliste puis médecin généraliste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolphe Acker, né à Paris le 25 février 1913 et mort à Créteil  le 9 juillet 1976, est un écrivain surréaliste puis médecin généraliste français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Militant trotskiste, Adolphe Acker rejoint le groupe surréaliste parisien en 1932 avec Henri Pastoureau.
 En 1935, avec Georges Bataille, il participe à la création du groupe Contre-attaque, puis à la publication de Clé, organe de la FIARI (Fédération internationale de l'art révolutionnaire indépendant), mouvement fondé par André Breton et Léon Trotsky en août 1938 à Mexico.
-De 1941 à 1944, dans Paris occupé, il collabore au groupe clandestin La Main à plume sous le pseudonyme Adolphe Champ[2].
-Adolphe Acker s'éloigne des surréalistes en 1951[3] et continue son activité de médecin généraliste.
+De 1941 à 1944, dans Paris occupé, il collabore au groupe clandestin La Main à plume sous le pseudonyme Adolphe Champ.
+Adolphe Acker s'éloigne des surréalistes en 1951 et continue son activité de médecin généraliste.
 </t>
         </is>
       </c>
